--- a/mosip_master/xlsx/ui_spec.xlsx
+++ b/mosip_master/xlsx/ui_spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sao Tome and Principe\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C24317C-4065-453E-9597-2F0D646F698B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F54D00-85EB-4A1D-A5EE-E40A7E3BCD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1560,6 +1560,232 @@
   </si>
   <si>
     <t>{
+	"id": "BIOMETRIC_CORRECTION",
+	"order": 4,
+	"flow": "CORRECTION",
+	"isSubProcess": false,
+	"label": {
+		"por": "Correção biométrica"
+	},
+	"screens": [
+		{
+			"order": 1,
+			"name": "consentdet",
+			"label": {
+				"por": "Consentimento"
+			},
+			"caption": {
+				"por": "Consentimento"
+			},
+			"fields": [
+				{
+					"id": "consentText",
+					"inputRequired": true,
+					"type": "simpleType",
+					"minimum": 0,
+					"maximum": 0,
+					"description": "Consent",
+					"label": {},
+					"controlType": "html",
+					"fieldType": "default",
+					"format": "none",
+					"validators": [],
+					"fieldCategory": "evidence",
+					"alignmentGroup": null,
+					"visible": null,
+					"contactType": null,
+					"group": "consentText",
+					"groupLabel": null,
+					"changeAction": null,
+					"transliterate": false,
+					"templateName": "Registration Consent",
+					"fieldLayout": null,
+					"locationHierarchy": null,
+					"conditionalBioAttributes": null,
+					"required": true,
+					"bioAttributes": null,
+					"requiredOn": [],
+					"subType": "consentText"
+				},
+				{
+					"id": "consent",
+					"inputRequired": true,
+					"type": "string",
+					"minimum": 0,
+					"maximum": 0,
+					"description": "consent accepted",
+					"label": {
+						"por": "Li e aceito os termos e condições para compartilhar minhas Personally Identifiable Information(PII)"
+					},
+					"controlType": "checkbox",
+					"fieldType": "default",
+					"format": "none",
+					"validators": [],
+					"fieldCategory": "evidence",
+					"alignmentGroup": null,
+					"visible": null,
+					"contactType": null,
+					"group": "consent",
+					"groupLabel": null,
+					"changeAction": null,
+					"transliterate": false,
+					"templateName": null,
+					"fieldLayout": null,
+					"locationHierarchy": null,
+					"conditionalBioAttributes": null,
+					"required": true,
+					"bioAttributes": null,
+					"requiredOn": [],
+					"subType": "consent"
+				},
+				{
+					"id": "preferredLang",
+					"inputRequired": true,
+					"type": "string",
+					"minimum": 0,
+					"maximum": 0,
+					"description": "user preferred Language",
+					"label": {
+						"por": "Idioma de notificação"
+					},
+					"controlType": "button",
+					"fieldType": "dynamic",
+					"format": "none",
+					"validators": [],
+					"fieldCategory": "pvt",
+					"alignmentGroup": "group1",
+					"visible": null,
+					"contactType": null,
+					"group": "PreferredLanguage",
+					"groupLabel": null,
+					"changeAction": null,
+					"transliterate": false,
+					"templateName": null,
+					"fieldLayout": null,
+					"locationHierarchy": null,
+					"conditionalBioAttributes": null,
+					"required": true,
+					"bioAttributes": null,
+					"requiredOn": [],
+					"subType": "preferredLang"
+				}
+			],
+			"layoutTemplate": null,
+			"preRegFetchRequired": false,
+			"additionalInfoRequestIdRequired": false,
+			"active": false
+		},
+		{
+			"order": 3,
+			"name": "BiometricDetails",
+			"label": {
+				"por": "Detalhes biométricos"
+			},
+			"caption": {
+				"por": "Detalhes biométricos"
+			},
+			"fields": [
+				{
+					"id": "individualBiometrics",
+					"inputRequired": true,
+					"type": "biometricsType",
+					"minimum": 0,
+					"maximum": 0,
+					"description": "",
+					"label": {
+						"por": "Biometria do Candidato"
+					},
+					"controlType": "biometrics",
+					"fieldType": "default",
+					"format": "none",
+					"validators": [],
+					"fieldCategory": "pvt",
+					"alignmentGroup": null,
+					"visible": null,
+					"contactType": null,
+					"group": "Biometrics",
+					"groupLabel": null,
+					"changeAction": null,
+					"transliterate": false,
+					"templateName": null,
+					"fieldLayout": null,
+					"locationHierarchy": null,
+					"conditionalBioAttributes": [
+						{
+							"ageGroup": "INFANT",
+							"process": "ALL",
+							"validationExpr": "face",
+							"bioAttributes": [
+								"face"
+							]
+						}
+					],
+					"required": true,
+					"bioAttributes": [
+						"leftEye",
+						"rightEye",
+						"rightIndex",
+						"rightLittle",
+						"rightRing",
+						"rightMiddle",
+						"leftIndex",
+						"leftLittle",
+						"leftRing",
+						"leftMiddle",
+						"leftThumb",
+						"rightThumb",
+						"face"
+					],
+					"requiredOn": [],
+					"subType": "applicant"
+				},
+				{
+					"id": "proofOfException",
+					"inputRequired": false,
+					"type": "documentType",
+					"minimum": 0,
+					"maximum": 0,
+					"description": "proofOfException",
+					"label": {
+						"por": "Prova de exceção"
+					},
+					"controlType": "fileupload",
+					"fieldType": "default",
+					"format": "none",
+					"validators": [],
+					"fieldCategory": "evidence",
+					"alignmentGroup": null,
+					"visible": null,
+					"contactType": null,
+					"group": "Documents",
+					"groupLabel": null,
+					"changeAction": null,
+					"transliterate": false,
+					"templateName": null,
+					"fieldLayout": null,
+					"locationHierarchy": null,
+					"conditionalBioAttributes": null,
+					"required": false,
+					"bioAttributes": null,
+					"requiredOn": [],
+					"subType": "POE"
+				}
+			],
+			"layoutTemplate": null,
+			"preRegFetchRequired": false,
+			"active": false
+		}
+	],
+	"caption": {
+		"por": "Perdido UIN"
+	},
+	"icon": "UINUpdate.png",
+	"isActive": true,
+	"autoSelectedGroups": null
+}</t>
+  </si>
+  <si>
+    <t>{
 	"id": "NEW",
 	"order": 1,
 	"flow": "NEW",
@@ -1737,7 +1963,7 @@
 						}
 					],
 					"fieldCategory": "pvt",
-					"alignmentGroup": "Demografia",
+					"alignmentGroup": "Demographics",
 					"alignmentGroupLabel": {
 						"por": "Demografia"
 					},
@@ -1778,7 +2004,7 @@
 						}
 					],
 					"fieldCategory": "pvt",
-					"alignmentGroup": "Demografia",
+					"alignmentGroup": "Demographics",
 					"alignmentGroupLabel": {
 						"por": "Demografia"
 					},
@@ -1812,7 +2038,7 @@
 					"format": "",
 					"validators": [],
 					"fieldCategory": "pvt",
-					"alignmentGroup": "Demografia",
+					"alignmentGroup": "Demographics",
 					"alignmentGroupLabel": {
 						"por": "Demografia"
 					},
@@ -2068,7 +2294,7 @@
 					"fieldLayout": null,
 					"locationHierarchy": null,
 					"conditionalBioAttributes": null,
-					"required": true,
+					"required": false,
 					"bioAttributes": null,
 					"requiredOn": [],
 					"subType": "Phone"
@@ -2109,7 +2335,7 @@
 					"fieldLayout": null,
 					"locationHierarchy": null,
 					"conditionalBioAttributes": null,
-					"required": true,
+					"required": false,
 					"bioAttributes": null,
 					"requiredOn": [],
 					"subType": "Email"
@@ -2250,7 +2476,7 @@
 					"fieldLayout": null,
 					"locationHierarchy": null,
 					"conditionalBioAttributes": null,
-					"required": true,
+					"required": false,
 					"bioAttributes": null,
 					"requiredOn": [],
 					"subType": "POA"
@@ -2281,7 +2507,7 @@
 					"fieldLayout": null,
 					"locationHierarchy": null,
 					"conditionalBioAttributes": null,
-					"required": true,
+					"required": false,
 					"bioAttributes": null,
 					"requiredOn": [],
 					"subType": "POI"
@@ -2554,7 +2780,7 @@
 		}
 	],
 	"caption": {
-		"por": "Novo registro",
+		"por": "Novo registro"
 	},
 	"icon": "NewReg.png",
 	"isActive": true,
@@ -2715,7 +2941,7 @@
 						}
 					],
 					"fieldCategory": "pvt",
-					"alignmentGroup": "Demografia",
+					"alignmentGroup": "Demographics",
 					"alignmentGroupLabel": {
 						"por": "Demografia"
 					},
@@ -2756,7 +2982,7 @@
 						}
 					],
 					"fieldCategory": "pvt",
-					"alignmentGroup": "Demografia",
+					"alignmentGroup": "Demographics",
 					"alignmentGroupLabel": {
 						"por": "Demografia"
 					},
@@ -2783,7 +3009,7 @@
 					"maximum": 0,
 					"description": "gender",
 					"label": {
-						"por": "Gênero"
+						"por": "Sexo"
 					},
 					"controlType": "button",
 					"fieldType": "dynamic",
@@ -3783,7 +4009,7 @@
 						}
 					],
 					"fieldCategory": "pvt",
-					"alignmentGroup": "Demografia",
+					"alignmentGroup": "Demographics",
 					"alignmentGroupLabel": {
 						"por": "Demografia"
 					},
@@ -3824,7 +4050,7 @@
 						}
 					],
 					"fieldCategory": "pvt",
-					"alignmentGroup": "Demografia",
+					"alignmentGroup": "Demographics",
 					"alignmentGroupLabel": {
 						"por": "Demografia"
 					},
@@ -3851,14 +4077,14 @@
 					"maximum": 0,
 					"description": "gender",
 					"label": {
-						"por": "Gênero"
+						"por": "Sexo"
 					},
 					"controlType": "button",
 					"fieldType": "dynamic",
 					"format": "",
 					"validators": [],
 					"fieldCategory": "pvt",
-					"alignmentGroup": "Demografia",
+					"alignmentGroup": "Demographics",
 					"alignmentGroupLabel": {
 						"por": "Demografia"
 					},
@@ -4366,232 +4592,6 @@
 	"autoSelectedGroups": null
 }</t>
   </si>
-  <si>
-    <t>{
-	"id": "BIOMETRIC_CORRECTION",
-	"order": 4,
-	"flow": "CORRECTION",
-	"isSubProcess": false,
-	"label": {
-		"por": "Correção biométrica"
-	},
-	"screens": [
-		{
-			"order": 1,
-			"name": "consentdet",
-			"label": {
-				"por": "Consentimento"
-			},
-			"caption": {
-				"por": "Consentimento"
-			},
-			"fields": [
-				{
-					"id": "consentText",
-					"inputRequired": true,
-					"type": "simpleType",
-					"minimum": 0,
-					"maximum": 0,
-					"description": "Consent",
-					"label": {},
-					"controlType": "html",
-					"fieldType": "default",
-					"format": "none",
-					"validators": [],
-					"fieldCategory": "evidence",
-					"alignmentGroup": null,
-					"visible": null,
-					"contactType": null,
-					"group": "consentText",
-					"groupLabel": null,
-					"changeAction": null,
-					"transliterate": false,
-					"templateName": "Registration Consent",
-					"fieldLayout": null,
-					"locationHierarchy": null,
-					"conditionalBioAttributes": null,
-					"required": true,
-					"bioAttributes": null,
-					"requiredOn": [],
-					"subType": "consentText"
-				},
-				{
-					"id": "consent",
-					"inputRequired": true,
-					"type": "string",
-					"minimum": 0,
-					"maximum": 0,
-					"description": "consent accepted",
-					"label": {
-						"por": "Li e aceito os termos e condições para compartilhar minhas Personally Identifiable Information(PII)"
-					},
-					"controlType": "checkbox",
-					"fieldType": "default",
-					"format": "none",
-					"validators": [],
-					"fieldCategory": "evidence",
-					"alignmentGroup": null,
-					"visible": null,
-					"contactType": null,
-					"group": "consent",
-					"groupLabel": null,
-					"changeAction": null,
-					"transliterate": false,
-					"templateName": null,
-					"fieldLayout": null,
-					"locationHierarchy": null,
-					"conditionalBioAttributes": null,
-					"required": true,
-					"bioAttributes": null,
-					"requiredOn": [],
-					"subType": "consent"
-				},
-				{
-					"id": "preferredLang",
-					"inputRequired": true,
-					"type": "string",
-					"minimum": 0,
-					"maximum": 0,
-					"description": "user preferred Language",
-					"label": {
-						"por": "Idioma de notificação"
-					},
-					"controlType": "button",
-					"fieldType": "dynamic",
-					"format": "none",
-					"validators": [],
-					"fieldCategory": "pvt",
-					"alignmentGroup": "group1",
-					"visible": null,
-					"contactType": null,
-					"group": "PreferredLanguage",
-					"groupLabel": null,
-					"changeAction": null,
-					"transliterate": false,
-					"templateName": null,
-					"fieldLayout": null,
-					"locationHierarchy": null,
-					"conditionalBioAttributes": null,
-					"required": true,
-					"bioAttributes": null,
-					"requiredOn": [],
-					"subType": "preferredLang"
-				}
-			],
-			"layoutTemplate": null,
-			"preRegFetchRequired": false,
-			"additionalInfoRequestIdRequired": false,
-			"active": false
-		},
-		{
-			"order": 3,
-			"name": "BiometricDetails",
-			"label": {
-				"por": "Detalhes biométricos"
-			},
-			"caption": {
-				"por": "Detalhes biométricos"
-			},
-			"fields": [
-				{
-					"id": "individualBiometrics",
-					"inputRequired": true,
-					"type": "biometricsType",
-					"minimum": 0,
-					"maximum": 0,
-					"description": "",
-					"label": {
-						"por": "Biometria do Candidato"
-					},
-					"controlType": "biometrics",
-					"fieldType": "default",
-					"format": "none",
-					"validators": [],
-					"fieldCategory": "pvt",
-					"alignmentGroup": null,
-					"visible": null,
-					"contactType": null,
-					"group": "Biometrics",
-					"groupLabel": null,
-					"changeAction": null,
-					"transliterate": false,
-					"templateName": null,
-					"fieldLayout": null,
-					"locationHierarchy": null,
-					"conditionalBioAttributes": [
-						{
-							"ageGroup": "INFANT",
-							"process": "ALL",
-							"validationExpr": "face",
-							"bioAttributes": [
-								"face"
-							]
-						}
-					],
-					"required": true,
-					"bioAttributes": [
-						"leftEye",
-						"rightEye",
-						"rightIndex",
-						"rightLittle",
-						"rightRing",
-						"rightMiddle",
-						"leftIndex",
-						"leftLittle",
-						"leftRing",
-						"leftMiddle",
-						"leftThumb",
-						"rightThumb",
-						"face"
-					],
-					"requiredOn": [],
-					"subType": "applicant"
-				},
-				{
-					"id": "proofOfException",
-					"inputRequired": false,
-					"type": "documentType",
-					"minimum": 0,
-					"maximum": 0,
-					"description": "proofOfException",
-					"label": {
-						"por": "Prova de exceção"
-					},
-					"controlType": "fileupload",
-					"fieldType": "default",
-					"format": "none",
-					"validators": [],
-					"fieldCategory": "evidence",
-					"alignmentGroup": null,
-					"visible": null,
-					"contactType": null,
-					"group": "Documents",
-					"groupLabel": null,
-					"changeAction": null,
-					"transliterate": false,
-					"templateName": null,
-					"fieldLayout": null,
-					"locationHierarchy": null,
-					"conditionalBioAttributes": null,
-					"required": false,
-					"bioAttributes": null,
-					"requiredOn": [],
-					"subType": "POE"
-				}
-			],
-			"layoutTemplate": null,
-			"preRegFetchRequired": false,
-			"active": false
-		}
-	],
-	"caption": {
-		"por": "Perdido UIN"
-	},
-	"icon": "UINUpdate.png",
-	"isActive": true,
-	"autoSelectedGroups": null
-}</t>
-  </si>
 </sst>
 </file>
 
@@ -4897,7 +4897,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5209,7 +5209,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H6" s="6">
         <v>1001</v>
@@ -5271,7 +5271,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H7" s="6">
         <v>1001</v>
@@ -5333,7 +5333,7 @@
         <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H8" s="6">
         <v>1001</v>
@@ -5395,7 +5395,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H9" s="6">
         <v>1001</v>
